--- a/build2.7_260131/results/2.7b_data2017_import4_pattern_results.xlsx
+++ b/build2.7_260131/results/2.7b_data2017_import4_pattern_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a89b0b6314c61c/MAFF_2025/workspace simul/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{C1174992-B5D7-421C-BEBB-BC08A7CAE5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF29122-75DF-460B-B576-48CC39873FDB}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{C1174992-B5D7-421C-BEBB-BC08A7CAE5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38A46B50-3444-4DC9-822E-EBF288648E85}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{E0999C2E-C2EB-487A-AB21-17565593E4E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{E0999C2E-C2EB-487A-AB21-17565593E4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -717,19 +717,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>476.5</v>
+        <v>598.9</v>
       </c>
       <c r="D2">
-        <v>511.87228521727479</v>
+        <v>532.82612145423923</v>
       </c>
       <c r="E2">
-        <v>139.30000000000001</v>
+        <v>168.2</v>
       </c>
       <c r="F2">
-        <v>149.67025883546049</v>
+        <v>149.67025883546046</v>
       </c>
       <c r="G2">
-        <v>10.370258835460476</v>
+        <v>-18.52974116453953</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -740,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>299.2</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="E3">
-        <v>86.7</v>
+        <v>86.9</v>
       </c>
       <c r="G3">
-        <v>-86.7</v>
+        <v>-86.9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -757,19 +757,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>299.2</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="D4">
-        <v>117.72451244827819</v>
+        <v>125.57281327816338</v>
       </c>
       <c r="E4">
-        <v>86.7</v>
+        <v>86.9</v>
       </c>
       <c r="F4">
         <v>34.12304708645744</v>
       </c>
       <c r="G4">
-        <v>-52.576952913542563</v>
+        <v>-52.776952913542566</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E5">
         <v>0.6</v>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E6">
         <v>0.6</v>
@@ -814,13 +814,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="E7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="E8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -848,19 +848,19 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>13.3</v>
+        <v>17.7</v>
       </c>
       <c r="D9">
-        <v>506.34647027728204</v>
+        <v>530.45820695715258</v>
       </c>
       <c r="E9">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
       <c r="F9">
         <v>401.86227799784285</v>
       </c>
       <c r="G9">
-        <v>391.36227799784285</v>
+        <v>388.46227799784288</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -871,19 +871,19 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>13.3</v>
+        <v>17.7</v>
       </c>
       <c r="D10">
-        <v>630.94219560101908</v>
+        <v>660.98706205821043</v>
       </c>
       <c r="E10">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
       <c r="F10">
-        <v>500.74777428652305</v>
+        <v>500.747774286523</v>
       </c>
       <c r="G10">
-        <v>490.24777428652305</v>
+        <v>487.34777428652302</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>27.9</v>
+        <v>30.9</v>
       </c>
       <c r="D11">
-        <v>121.08291774195827</v>
+        <v>155.97121607438697</v>
       </c>
       <c r="E11">
-        <v>47.2</v>
+        <v>40.6</v>
       </c>
       <c r="F11">
-        <v>205.22528430840387</v>
+        <v>205.2252843084039</v>
       </c>
       <c r="G11">
-        <v>158.02528430840385</v>
+        <v>164.62528430840391</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -917,19 +917,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>27.9</v>
+        <v>30.9</v>
       </c>
       <c r="D12">
-        <v>40.960490636760753</v>
+        <v>52.76266590497994</v>
       </c>
       <c r="E12">
-        <v>47.2</v>
+        <v>40.6</v>
       </c>
       <c r="F12">
-        <v>69.424560401289426</v>
+        <v>69.424560401289384</v>
       </c>
       <c r="G12">
-        <v>22.224560401289423</v>
+        <v>28.824560401289382</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -940,13 +940,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>73.2</v>
+        <v>79.7</v>
       </c>
       <c r="E13">
-        <v>18.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="G13">
-        <v>-18.399999999999999</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -957,13 +957,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>73.2</v>
+        <v>79.7</v>
       </c>
       <c r="E14">
-        <v>18.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="G14">
-        <v>-18.399999999999999</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -974,13 +974,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>23.7</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="G15">
-        <v>-6.2</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -991,19 +991,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>66.400000000000006</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="D16">
-        <v>156.88371073968523</v>
+        <v>170.4884525255824</v>
       </c>
       <c r="E16">
-        <v>241.4</v>
+        <v>263.8</v>
       </c>
       <c r="F16">
-        <v>570.48622087158265</v>
+        <v>579.89269566524626</v>
       </c>
       <c r="G16">
-        <v>329.08622087158267</v>
+        <v>316.09269566524625</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1014,19 +1014,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="D17">
-        <v>7.392441645873487</v>
+        <v>6.776404842050697</v>
       </c>
       <c r="E17">
-        <v>9.3000000000000007</v>
+        <v>15</v>
       </c>
       <c r="F17">
-        <v>15.400920095569763</v>
+        <v>15.400920095569766</v>
       </c>
       <c r="G17">
-        <v>6.1009200955697622</v>
+        <v>0.40092009556976649</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1037,19 +1037,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>7.0851565537353798</v>
+        <v>7.2188387528624638</v>
       </c>
       <c r="E18">
-        <v>20.8</v>
+        <v>25.9</v>
       </c>
       <c r="F18">
         <v>13.368219912708263</v>
       </c>
       <c r="G18">
-        <v>-7.4317800872917381</v>
+        <v>-12.531780087291736</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1060,19 +1060,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>50.7</v>
+        <v>49.6</v>
       </c>
       <c r="D19">
-        <v>17.794715181660123</v>
+        <v>13.724307277831285</v>
       </c>
       <c r="E19">
-        <v>60.7</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F19">
-        <v>21.311036145700747</v>
+        <v>21.311036145700751</v>
       </c>
       <c r="G19">
-        <v>-39.388963854299256</v>
+        <v>-55.78896385429924</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1083,19 +1083,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1471.1000000000006</v>
+        <v>1682.5000000000002</v>
       </c>
       <c r="D20">
-        <v>2118.0848960435278</v>
+        <v>2256.7860891254604</v>
       </c>
       <c r="E20">
-        <v>806.59999999999991</v>
+        <v>879.30000000000007</v>
       </c>
       <c r="F20">
-        <v>1981.6195999415386</v>
+        <v>1991.026074735202</v>
       </c>
       <c r="G20">
-        <v>1175.0195999415384</v>
+        <v>1111.726074735202</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1106,19 +1106,19 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>476.5</v>
+        <v>598.9</v>
       </c>
       <c r="D21">
-        <v>875.05068007945306</v>
+        <v>910.87146815288099</v>
       </c>
       <c r="E21">
-        <v>139.30000000000001</v>
+        <v>168.2</v>
       </c>
       <c r="F21">
-        <v>255.86277195305649</v>
+        <v>255.86277195305647</v>
       </c>
       <c r="G21">
-        <v>116.56277195305648</v>
+        <v>87.662771953056478</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1129,19 +1129,19 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>299.2</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="D22">
-        <v>238.99270335060407</v>
+        <v>254.9255502406443</v>
       </c>
       <c r="E22">
-        <v>86.7</v>
+        <v>86.9</v>
       </c>
       <c r="F22">
         <v>69.273247348001178</v>
       </c>
       <c r="G22">
-        <v>-17.426752651998825</v>
+        <v>-17.626752651998828</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1152,19 +1152,19 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>299.2</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="D23">
-        <v>117.72451244827819</v>
+        <v>125.57281327816338</v>
       </c>
       <c r="E23">
-        <v>86.7</v>
+        <v>86.9</v>
       </c>
       <c r="F23">
         <v>34.12304708645744</v>
       </c>
       <c r="G23">
-        <v>-52.576952913542563</v>
+        <v>-52.776952913542566</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E24">
         <v>0.6</v>
@@ -1192,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E25">
         <v>0.6</v>
@@ -1209,13 +1209,13 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="E26">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G26">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1226,13 +1226,13 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="E27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1243,13 +1243,13 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>13.3</v>
+        <v>17.7</v>
       </c>
       <c r="E28">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
       <c r="G28">
-        <v>-10.5</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1260,13 +1260,13 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>13.3</v>
+        <v>17.7</v>
       </c>
       <c r="E29">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
       <c r="G29">
-        <v>-10.5</v>
+        <v>-13.4</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1277,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>27.9</v>
+        <v>30.9</v>
       </c>
       <c r="E30">
-        <v>47.2</v>
+        <v>40.6</v>
       </c>
       <c r="G30">
-        <v>-47.2</v>
+        <v>-40.6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1294,13 +1294,13 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>27.9</v>
+        <v>30.9</v>
       </c>
       <c r="E31">
-        <v>47.2</v>
+        <v>40.6</v>
       </c>
       <c r="G31">
-        <v>-47.2</v>
+        <v>-40.6</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1311,19 +1311,19 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>73.2</v>
+        <v>79.7</v>
       </c>
       <c r="D32">
-        <v>117.10221097047176</v>
+        <v>125.95793652911595</v>
       </c>
       <c r="E32">
-        <v>18.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="F32">
-        <v>29.519085195480653</v>
+        <v>29.519085195480649</v>
       </c>
       <c r="G32">
-        <v>11.119085195480654</v>
+        <v>10.81908519548065</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1334,13 +1334,13 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>73.2</v>
+        <v>79.7</v>
       </c>
       <c r="E33">
-        <v>18.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="G33">
-        <v>-18.399999999999999</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1351,13 +1351,13 @@
         <v>13</v>
       </c>
       <c r="C34">
-        <v>23.7</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="G34">
-        <v>-6.2</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1368,19 +1368,19 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>66.400000000000006</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="D35">
-        <v>49.606036328127203</v>
+        <v>53.907804256002258</v>
       </c>
       <c r="E35">
-        <v>241.4</v>
+        <v>263.8</v>
       </c>
       <c r="F35">
-        <v>180.38558664773527</v>
+        <v>183.35987842177639</v>
       </c>
       <c r="G35">
-        <v>-61.014413352264739</v>
+        <v>-80.440121578223625</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1391,19 +1391,19 @@
         <v>15</v>
       </c>
       <c r="C36">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="D36">
-        <v>7.392441645873487</v>
+        <v>6.776404842050697</v>
       </c>
       <c r="E36">
-        <v>9.3000000000000007</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>15.400920095569763</v>
+        <v>15.400920095569766</v>
       </c>
       <c r="G36">
-        <v>6.1009200955697622</v>
+        <v>0.40092009556976649</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1414,19 +1414,19 @@
         <v>16</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>7.0851565537353798</v>
+        <v>7.2188387528624638</v>
       </c>
       <c r="E37">
-        <v>20.8</v>
+        <v>25.9</v>
       </c>
       <c r="F37">
         <v>13.368219912708263</v>
       </c>
       <c r="G37">
-        <v>-7.4317800872917381</v>
+        <v>-12.531780087291736</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1437,19 +1437,19 @@
         <v>17</v>
       </c>
       <c r="C38">
-        <v>50.7</v>
+        <v>49.6</v>
       </c>
       <c r="D38">
-        <v>17.794715181660123</v>
+        <v>13.724307277831285</v>
       </c>
       <c r="E38">
-        <v>60.7</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F38">
-        <v>21.311036145700747</v>
+        <v>21.311036145700751</v>
       </c>
       <c r="G38">
-        <v>-39.388963854299256</v>
+        <v>-55.78896385429924</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1460,19 +1460,19 @@
         <v>18</v>
       </c>
       <c r="C39">
-        <v>1471.1000000000006</v>
+        <v>1682.5000000000002</v>
       </c>
       <c r="D39">
-        <v>1430.7484565582033</v>
+        <v>1498.9551233295513</v>
       </c>
       <c r="E39">
-        <v>806.59999999999991</v>
+        <v>879.30000000000007</v>
       </c>
       <c r="F39">
-        <v>619.2439143847098</v>
+        <v>622.21820615875095</v>
       </c>
       <c r="G39">
-        <v>-187.3560856152902</v>
+        <v>-257.08179384124907</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1483,19 +1483,19 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>476.5</v>
+        <v>598.9</v>
       </c>
       <c r="D40">
-        <v>511.87228521727479</v>
+        <v>532.82612145423923</v>
       </c>
       <c r="E40">
-        <v>139.30000000000001</v>
+        <v>168.2</v>
       </c>
       <c r="F40">
-        <v>149.67025883546049</v>
+        <v>149.67025883546046</v>
       </c>
       <c r="G40">
-        <v>10.370258835460476</v>
+        <v>-18.52974116453953</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1506,19 +1506,19 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>299.2</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="D41">
-        <v>172.53057777727835</v>
+        <v>184.03261629576352</v>
       </c>
       <c r="E41">
-        <v>86.7</v>
+        <v>86.9</v>
       </c>
       <c r="F41">
         <v>50.008863123848798</v>
       </c>
       <c r="G41">
-        <v>-36.691136876151205</v>
+        <v>-36.891136876151208</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1529,19 +1529,19 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>299.2</v>
+        <v>319.89999999999998</v>
       </c>
       <c r="D42">
-        <v>117.72451244827819</v>
+        <v>125.57281327816338</v>
       </c>
       <c r="E42">
-        <v>86.7</v>
+        <v>86.9</v>
       </c>
       <c r="F42">
         <v>34.12304708645744</v>
       </c>
       <c r="G42">
-        <v>-52.576952913542563</v>
+        <v>-52.776952913542566</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E43">
         <v>0.6</v>
@@ -1569,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E44">
         <v>0.6</v>
@@ -1586,13 +1586,13 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="E45">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G45">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1603,13 +1603,13 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="E46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1620,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>13.3</v>
+        <v>17.7</v>
       </c>
       <c r="D47">
-        <v>516.63839447151781</v>
+        <v>541.24022277968561</v>
       </c>
       <c r="E47">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
       <c r="F47">
-        <v>410.03047180279196</v>
+        <v>410.03047180279208</v>
       </c>
       <c r="G47">
-        <v>399.53047180279196</v>
+        <v>396.6304718027921</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1643,19 +1643,19 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>13.3</v>
+        <v>17.7</v>
       </c>
       <c r="D48">
-        <v>630.94219560101897</v>
+        <v>660.98706205821043</v>
       </c>
       <c r="E48">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
       <c r="F48">
-        <v>500.74777428652294</v>
+        <v>500.747774286523</v>
       </c>
       <c r="G48">
-        <v>490.24777428652294</v>
+        <v>487.34777428652302</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1666,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>27.9</v>
+        <v>30.9</v>
       </c>
       <c r="D49">
-        <v>121.08291774195828</v>
+        <v>155.971216074387</v>
       </c>
       <c r="E49">
-        <v>47.2</v>
+        <v>40.6</v>
       </c>
       <c r="F49">
-        <v>205.2252843084039</v>
+        <v>205.22528430840396</v>
       </c>
       <c r="G49">
-        <v>158.02528430840391</v>
+        <v>164.62528430840396</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1689,19 +1689,19 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>27.9</v>
+        <v>30.9</v>
       </c>
       <c r="D50">
-        <v>40.960490636760746</v>
+        <v>52.762665904979968</v>
       </c>
       <c r="E50">
-        <v>47.2</v>
+        <v>40.6</v>
       </c>
       <c r="F50">
-        <v>69.424560401289412</v>
+        <v>69.424560401289426</v>
       </c>
       <c r="G50">
-        <v>22.224560401289409</v>
+        <v>28.824560401289425</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1712,13 +1712,13 @@
         <v>11</v>
       </c>
       <c r="C51">
-        <v>73.2</v>
+        <v>79.7</v>
       </c>
       <c r="E51">
-        <v>18.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="G51">
-        <v>-18.399999999999999</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1729,13 +1729,13 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>73.2</v>
+        <v>79.7</v>
       </c>
       <c r="E52">
-        <v>18.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="G52">
-        <v>-18.399999999999999</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1746,13 +1746,13 @@
         <v>13</v>
       </c>
       <c r="C53">
-        <v>23.7</v>
+        <v>28</v>
       </c>
       <c r="E53">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="G53">
-        <v>-6.2</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1763,19 +1763,19 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>66.400000000000006</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="D54">
-        <v>49.606036328127203</v>
+        <v>53.907804256002258</v>
       </c>
       <c r="E54">
-        <v>241.4</v>
+        <v>263.8</v>
       </c>
       <c r="F54">
-        <v>180.38558664773527</v>
+        <v>183.35987842177639</v>
       </c>
       <c r="G54">
-        <v>-61.014413352264739</v>
+        <v>-80.440121578223625</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1786,19 +1786,19 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="D55">
-        <v>7.392441645873487</v>
+        <v>6.776404842050697</v>
       </c>
       <c r="E55">
-        <v>9.3000000000000007</v>
+        <v>15</v>
       </c>
       <c r="F55">
-        <v>15.400920095569763</v>
+        <v>15.400920095569766</v>
       </c>
       <c r="G55">
-        <v>6.1009200955697622</v>
+        <v>0.40092009556976649</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1809,19 +1809,19 @@
         <v>16</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D56">
-        <v>7.0851565537353798</v>
+        <v>7.2188387528624638</v>
       </c>
       <c r="E56">
-        <v>20.8</v>
+        <v>25.9</v>
       </c>
       <c r="F56">
         <v>13.368219912708263</v>
       </c>
       <c r="G56">
-        <v>-7.4317800872917381</v>
+        <v>-12.531780087291736</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1832,19 +1832,19 @@
         <v>17</v>
       </c>
       <c r="C57">
-        <v>50.7</v>
+        <v>49.6</v>
       </c>
       <c r="D57">
-        <v>17.794715181660123</v>
+        <v>13.724307277831285</v>
       </c>
       <c r="E57">
-        <v>60.7</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F57">
-        <v>21.311036145700747</v>
+        <v>21.311036145700751</v>
       </c>
       <c r="G57">
-        <v>-39.388963854299256</v>
+        <v>-55.78896385429924</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1855,19 +1855,19 @@
         <v>18</v>
       </c>
       <c r="C58">
-        <v>1471.1000000000006</v>
+        <v>1682.5000000000002</v>
       </c>
       <c r="D58">
-        <v>2193.6297236034839</v>
+        <v>2335.0200729741769</v>
       </c>
       <c r="E58">
-        <v>806.59999999999991</v>
+        <v>879.30000000000007</v>
       </c>
       <c r="F58">
-        <v>1649.6960226464889</v>
+        <v>1652.6703144205301</v>
       </c>
       <c r="G58">
-        <v>843.09602264648902</v>
+        <v>773.37031442053024</v>
       </c>
     </row>
   </sheetData>
@@ -1909,19 +1909,19 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>154.5</v>
+        <v>168.5</v>
       </c>
       <c r="D2">
-        <v>73.512255064031848</v>
+        <v>71.553016728066552</v>
       </c>
       <c r="E2">
-        <v>42.9</v>
+        <v>48.1</v>
       </c>
       <c r="F2">
         <v>20.408732666305347</v>
       </c>
       <c r="G2">
-        <v>-22.491267333694651</v>
+        <v>-27.691267333694654</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1932,19 +1932,19 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>182.2</v>
+        <v>209.5</v>
       </c>
       <c r="D3">
-        <v>53.759530935637549</v>
+        <v>52.714588646351487</v>
       </c>
       <c r="E3">
-        <v>46.6</v>
+        <v>54.6</v>
       </c>
       <c r="F3">
         <v>13.749240648500649</v>
       </c>
       <c r="G3">
-        <v>-32.850759351499349</v>
+        <v>-40.850759351499349</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1955,19 +1955,19 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>115.7</v>
+        <v>368.3</v>
       </c>
       <c r="D4">
-        <v>0.96263697506892287</v>
+        <v>1.0011641595277125</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>39.9</v>
       </c>
       <c r="F4">
         <v>0.10852728016560571</v>
       </c>
       <c r="G4">
-        <v>-12.891472719834395</v>
+        <v>-39.791472719834395</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1978,13 +1978,13 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>17.7</v>
+        <v>20.7</v>
       </c>
       <c r="E5">
-        <v>9.6999999999999993</v>
+        <v>10.8</v>
       </c>
       <c r="G5">
-        <v>-9.6999999999999993</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1995,13 +1995,13 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>10.8</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>14.2</v>
+        <v>19.7</v>
       </c>
       <c r="G6">
-        <v>-14.2</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2012,13 +2012,13 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>14.7</v>
+        <v>16.2</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="G7">
-        <v>-12.5</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2029,19 +2029,19 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>495.59999999999997</v>
+        <v>797.2</v>
       </c>
       <c r="D8">
-        <v>128.23442297473832</v>
+        <v>125.26876953394576</v>
       </c>
       <c r="E8">
-        <v>138.9</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="F8">
         <v>34.266500594971603</v>
       </c>
       <c r="G8">
-        <v>-104.6334994050284</v>
+        <v>-151.53349940502838</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2052,13 +2052,13 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>154.5</v>
+        <v>168.5</v>
       </c>
       <c r="E9">
-        <v>42.9</v>
+        <v>48.1</v>
       </c>
       <c r="G9">
-        <v>-42.9</v>
+        <v>-48.1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2069,19 +2069,19 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>182.2</v>
+        <v>209.5</v>
       </c>
       <c r="D10">
-        <v>57.31530059164308</v>
+        <v>56.201243598045913</v>
       </c>
       <c r="E10">
-        <v>46.6</v>
+        <v>54.6</v>
       </c>
       <c r="F10">
-        <v>14.658644652594138</v>
+        <v>14.658644652594136</v>
       </c>
       <c r="G10">
-        <v>-31.941355347405864</v>
+        <v>-39.941355347405867</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2092,19 +2092,19 @@
         <v>28</v>
       </c>
       <c r="C11">
-        <v>115.7</v>
+        <v>368.3</v>
       </c>
       <c r="D11">
-        <v>5.6131491449562265</v>
+        <v>5.8378016755604474</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>39.9</v>
       </c>
       <c r="F11">
-        <v>0.63282402987105135</v>
+        <v>0.63282402987105124</v>
       </c>
       <c r="G11">
-        <v>-12.367175970128949</v>
+        <v>-39.267175970128946</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2115,19 +2115,19 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>17.7</v>
+        <v>20.7</v>
       </c>
       <c r="D12">
-        <v>22.613276672072487</v>
+        <v>23.855764401307233</v>
       </c>
       <c r="E12">
-        <v>9.6999999999999993</v>
+        <v>10.8</v>
       </c>
       <c r="F12">
-        <v>12.424877292347521</v>
+        <v>12.424877292347519</v>
       </c>
       <c r="G12">
-        <v>2.7248772923475215</v>
+        <v>1.6248772923475183</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2138,19 +2138,19 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>10.8</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>6.2323184498415163</v>
+        <v>5.8222974991940468</v>
       </c>
       <c r="E13">
-        <v>14.2</v>
+        <v>19.7</v>
       </c>
       <c r="F13">
         <v>8.2004190129493626</v>
       </c>
       <c r="G13">
-        <v>-5.9995809870506367</v>
+        <v>-11.499580987050637</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2161,13 +2161,13 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>14.7</v>
+        <v>16.2</v>
       </c>
       <c r="E14">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="G14">
-        <v>-12.5</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2178,19 +2178,19 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>495.59999999999997</v>
+        <v>797.2</v>
       </c>
       <c r="D15">
-        <v>91.774044858513307</v>
+        <v>91.717107174107653</v>
       </c>
       <c r="E15">
-        <v>138.9</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="F15">
-        <v>35.916764987762072</v>
+        <v>35.916764987762065</v>
       </c>
       <c r="G15">
-        <v>-102.98323501223793</v>
+        <v>-149.88323501223792</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2201,19 +2201,19 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>154.5</v>
+        <v>168.5</v>
       </c>
       <c r="D16">
-        <v>73.512255064031862</v>
+        <v>71.553016728066567</v>
       </c>
       <c r="E16">
-        <v>42.9</v>
+        <v>48.1</v>
       </c>
       <c r="F16">
-        <v>20.408732666305347</v>
+        <v>20.408732666305355</v>
       </c>
       <c r="G16">
-        <v>-22.491267333694651</v>
+        <v>-27.691267333694647</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2224,19 +2224,19 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>182.2</v>
+        <v>209.5</v>
       </c>
       <c r="D17">
-        <v>44.379030130374552</v>
+        <v>43.516419826050125</v>
       </c>
       <c r="E17">
-        <v>46.6</v>
+        <v>54.6</v>
       </c>
       <c r="F17">
         <v>11.350135583215996</v>
       </c>
       <c r="G17">
-        <v>-35.249864416784007</v>
+        <v>-43.249864416784007</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2247,19 +2247,19 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>115.7</v>
+        <v>368.3</v>
       </c>
       <c r="D18">
-        <v>0.96263697506892287</v>
+        <v>1.0011641595277125</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>39.9</v>
       </c>
       <c r="F18">
-        <v>0.10852728016560571</v>
+        <v>0.1085272801656057</v>
       </c>
       <c r="G18">
-        <v>-12.891472719834395</v>
+        <v>-39.791472719834395</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2270,13 +2270,13 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>17.7</v>
+        <v>20.7</v>
       </c>
       <c r="E19">
-        <v>9.6999999999999993</v>
+        <v>10.8</v>
       </c>
       <c r="G19">
-        <v>-9.6999999999999993</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2287,13 +2287,13 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>10.8</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>14.2</v>
+        <v>19.7</v>
       </c>
       <c r="G20">
-        <v>-14.2</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2304,13 +2304,13 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>14.7</v>
+        <v>16.2</v>
       </c>
       <c r="E21">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="G21">
-        <v>-12.5</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2321,19 +2321,19 @@
         <v>18</v>
       </c>
       <c r="C22">
-        <v>495.59999999999997</v>
+        <v>797.2</v>
       </c>
       <c r="D22">
-        <v>118.85392216947533</v>
+        <v>116.07060071364441</v>
       </c>
       <c r="E22">
-        <v>138.9</v>
+        <v>185.79999999999998</v>
       </c>
       <c r="F22">
-        <v>31.867395529686949</v>
+        <v>31.867395529686956</v>
       </c>
       <c r="G22">
-        <v>-107.03260447031306</v>
+        <v>-153.93260447031304</v>
       </c>
     </row>
   </sheetData>
@@ -2375,19 +2375,19 @@
         <v>32</v>
       </c>
       <c r="C2">
-        <v>43.8</v>
+        <v>42.8</v>
       </c>
       <c r="D2">
-        <v>3.1456455321684698</v>
+        <v>3.4398250328485624</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>15.2</v>
       </c>
       <c r="F2">
-        <v>1.5258272856851327</v>
+        <v>1.5258272856851323</v>
       </c>
       <c r="G2">
-        <v>-15.474172714314868</v>
+        <v>-13.674172714314867</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2398,19 +2398,19 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>76.900000000000006</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D3">
-        <v>0.46011462434135264</v>
+        <v>0.48926021768575145</v>
       </c>
       <c r="E3">
-        <v>35.799999999999997</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>0.2678822917683702</v>
+        <v>0.26788229176837014</v>
       </c>
       <c r="G3">
-        <v>-35.532117708231624</v>
+        <v>-32.732117708231627</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2421,13 +2421,13 @@
         <v>34</v>
       </c>
       <c r="C4">
-        <v>58.3</v>
+        <v>46.6</v>
       </c>
       <c r="E4">
-        <v>39.9</v>
+        <v>28.6</v>
       </c>
       <c r="G4">
-        <v>-39.9</v>
+        <v>-28.6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2438,13 +2438,13 @@
         <v>35</v>
       </c>
       <c r="C5">
-        <v>65.900000000000006</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E5">
-        <v>46.4</v>
+        <v>45.5</v>
       </c>
       <c r="G5">
-        <v>-46.4</v>
+        <v>-45.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2455,19 +2455,19 @@
         <v>36</v>
       </c>
       <c r="C6">
-        <v>162.1</v>
+        <v>160.9</v>
       </c>
       <c r="D6">
-        <v>82.128583507153621</v>
+        <v>83.432211816790925</v>
       </c>
       <c r="E6">
-        <v>257.3</v>
+        <v>251.5</v>
       </c>
       <c r="F6">
-        <v>162.95353870466982</v>
+        <v>162.95353870466977</v>
       </c>
       <c r="G6">
-        <v>-94.346461295330187</v>
+        <v>-88.546461295330232</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2478,19 +2478,19 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>407</v>
+        <v>394.3</v>
       </c>
       <c r="D7">
-        <v>85.734343663663438</v>
+        <v>87.361297067325239</v>
       </c>
       <c r="E7">
-        <v>396.4</v>
+        <v>373.8</v>
       </c>
       <c r="F7">
-        <v>164.74724828212334</v>
+        <v>164.74724828212328</v>
       </c>
       <c r="G7">
-        <v>-231.65275171787667</v>
+        <v>-209.05275171787673</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2501,19 +2501,19 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>43.8</v>
+        <v>42.8</v>
       </c>
       <c r="D8">
-        <v>4.0961189294318299</v>
+        <v>4.4791863186414052</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>15.2</v>
       </c>
       <c r="F8">
-        <v>1.9868640519168754</v>
+        <v>1.9868640519168757</v>
       </c>
       <c r="G8">
-        <v>-15.013135948083125</v>
+        <v>-13.213135948083124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2524,19 +2524,19 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>76.900000000000006</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D9">
-        <v>0.46011462434135264</v>
+        <v>0.48926021768575145</v>
       </c>
       <c r="E9">
-        <v>35.799999999999997</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>0.2678822917683702</v>
+        <v>0.26788229176837014</v>
       </c>
       <c r="G9">
-        <v>-35.532117708231624</v>
+        <v>-32.732117708231627</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2547,13 +2547,13 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>58.3</v>
+        <v>46.6</v>
       </c>
       <c r="E10">
-        <v>39.9</v>
+        <v>28.6</v>
       </c>
       <c r="G10">
-        <v>-39.9</v>
+        <v>-28.6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2564,13 +2564,13 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>65.900000000000006</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E11">
-        <v>46.4</v>
+        <v>45.5</v>
       </c>
       <c r="G11">
-        <v>-46.4</v>
+        <v>-45.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2581,19 +2581,19 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>162.1</v>
+        <v>160.9</v>
       </c>
       <c r="D12">
-        <v>106.94416841021803</v>
+        <v>108.6416948929199</v>
       </c>
       <c r="E12">
-        <v>257.3</v>
+        <v>251.5</v>
       </c>
       <c r="F12">
-        <v>212.19081033773415</v>
+        <v>212.19081033773418</v>
       </c>
       <c r="G12">
-        <v>-45.109189662265862</v>
+        <v>-39.309189662265823</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2604,19 +2604,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>407</v>
+        <v>394.3</v>
       </c>
       <c r="D13">
-        <v>111.50040196399121</v>
+        <v>113.61014142924705</v>
       </c>
       <c r="E13">
-        <v>396.4</v>
+        <v>373.8</v>
       </c>
       <c r="F13">
-        <v>214.44555668141939</v>
+        <v>214.44555668141942</v>
       </c>
       <c r="G13">
-        <v>-181.95444331858062</v>
+        <v>-159.35444331858056</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2627,19 +2627,19 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>43.8</v>
+        <v>42.8</v>
       </c>
       <c r="D14">
-        <v>7.1678062826451709</v>
+        <v>4.2823013347494383</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>15.2</v>
       </c>
       <c r="F14">
-        <v>3.4768171724122872</v>
+        <v>1.899530400438892</v>
       </c>
       <c r="G14">
-        <v>-13.523182827587712</v>
+        <v>-13.300469599561108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2650,19 +2650,19 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>76.900000000000006</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D15">
-        <v>0.46011462434135264</v>
+        <v>0.48926021768575145</v>
       </c>
       <c r="E15">
-        <v>35.799999999999997</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>0.2678822917683702</v>
+        <v>0.26788229176837014</v>
       </c>
       <c r="G15">
-        <v>-35.532117708231624</v>
+        <v>-32.732117708231627</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2673,13 +2673,13 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>58.3</v>
+        <v>46.6</v>
       </c>
       <c r="E16">
-        <v>39.9</v>
+        <v>28.6</v>
       </c>
       <c r="G16">
-        <v>-39.9</v>
+        <v>-28.6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2690,13 +2690,13 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>65.900000000000006</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E17">
-        <v>46.4</v>
+        <v>45.5</v>
       </c>
       <c r="G17">
-        <v>-46.4</v>
+        <v>-45.5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2707,19 +2707,19 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>162.1</v>
+        <v>160.9</v>
       </c>
       <c r="D18">
-        <v>89.089696286793355</v>
+        <v>103.86629221320366</v>
       </c>
       <c r="E18">
-        <v>257.3</v>
+        <v>251.5</v>
       </c>
       <c r="F18">
-        <v>176.76527041030423</v>
+        <v>202.86385197891337</v>
       </c>
       <c r="G18">
-        <v>-80.534729589695786</v>
+        <v>-48.636148021086626</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2730,19 +2730,19 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>407</v>
+        <v>394.3</v>
       </c>
       <c r="D19">
-        <v>96.717617193779873</v>
+        <v>108.63785376563885</v>
       </c>
       <c r="E19">
-        <v>396.4</v>
+        <v>373.8</v>
       </c>
       <c r="F19">
-        <v>180.50996987448488</v>
+        <v>205.03126467112062</v>
       </c>
       <c r="G19">
-        <v>-215.89003012551512</v>
+        <v>-168.76873532887936</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9459907A-4E11-432F-9736-28AEF719C7C4}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -2787,16 +2787,16 @@
         <v>2076.9042496169427</v>
       </c>
       <c r="D2">
-        <v>2461.5000000000014</v>
+        <v>3021.5</v>
       </c>
       <c r="E2">
-        <v>2405.0461749658939</v>
+        <v>2549.0780568240734</v>
       </c>
       <c r="F2">
-        <v>328.14192534895119</v>
+        <v>472.17380720713072</v>
       </c>
       <c r="G2">
-        <v>115.79956925840335</v>
+        <v>122.73450050931413</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2810,16 +2810,16 @@
         <v>67.486215530701273</v>
       </c>
       <c r="D3">
-        <v>92.90000000000002</v>
+        <v>100.79999999999998</v>
       </c>
       <c r="E3">
-        <v>50.919064218481743</v>
+        <v>50.660864808688011</v>
       </c>
       <c r="F3">
-        <v>-16.567151312219529</v>
+        <v>-16.825350722013262</v>
       </c>
       <c r="G3">
-        <v>75.451058883746867</v>
+        <v>75.068463108056548</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2833,16 +2833,16 @@
         <v>62.294577829967146</v>
       </c>
       <c r="D4">
-        <v>60.9</v>
+        <v>88.1</v>
       </c>
       <c r="E4">
-        <v>14.584664959103986</v>
+        <v>14.186313626735341</v>
       </c>
       <c r="F4">
-        <v>-47.709912870863164</v>
+        <v>-48.108264203231805</v>
       </c>
       <c r="G4">
-        <v>23.4124147994273</v>
+        <v>22.77295090666934</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2856,16 +2856,16 @@
         <v>311.47288914983574</v>
       </c>
       <c r="D5">
-        <v>299.09999999999997</v>
+        <v>345.92500000000007</v>
       </c>
       <c r="E5">
-        <v>486.52085153799993</v>
+        <v>519.20805861419444</v>
       </c>
       <c r="F5">
-        <v>175.04796238816419</v>
+        <v>207.73516946435871</v>
       </c>
       <c r="G5">
-        <v>156.20006378916543</v>
+        <v>166.69446256827399</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2879,16 +2879,16 @@
         <v>2076.9042496169427</v>
       </c>
       <c r="D6">
-        <v>2461.5000000000014</v>
+        <v>3021.5</v>
       </c>
       <c r="E6">
-        <v>1707.0154156646724</v>
+        <v>1783.9442730302478</v>
       </c>
       <c r="F6">
-        <v>-369.88883395227026</v>
+        <v>-292.95997658669489</v>
       </c>
       <c r="G6">
-        <v>82.190376180293754</v>
+        <v>85.894391778497848</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2902,16 +2902,16 @@
         <v>67.486215530701273</v>
       </c>
       <c r="D7">
-        <v>92.90000000000002</v>
+        <v>100.79999999999998</v>
       </c>
       <c r="E7">
-        <v>57.530330276066486</v>
+        <v>58.179905510609075</v>
       </c>
       <c r="F7">
-        <v>-9.9558852546347865</v>
+        <v>-9.306310020092198</v>
       </c>
       <c r="G7">
-        <v>85.247527696814487</v>
+        <v>86.210057940115917</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2925,16 +2925,16 @@
         <v>62.294577829967146</v>
       </c>
       <c r="D8">
-        <v>60.9</v>
+        <v>88.1</v>
       </c>
       <c r="E8">
-        <v>22.931707063629005</v>
+        <v>22.41227230284942</v>
       </c>
       <c r="F8">
-        <v>-39.362870766338141</v>
+        <v>-39.882305527117722</v>
       </c>
       <c r="G8">
-        <v>36.811722404189055</v>
+        <v>35.977886171768667</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2948,16 +2948,16 @@
         <v>311.47288914983574</v>
       </c>
       <c r="D9">
-        <v>299.09999999999997</v>
+        <v>345.92500000000007</v>
       </c>
       <c r="E9">
-        <v>300.56132289807783</v>
+        <v>316.69408623053027</v>
       </c>
       <c r="F9">
-        <v>-10.911566251757904</v>
+        <v>5.2211970806945374</v>
       </c>
       <c r="G9">
-        <v>96.496784589650488</v>
+        <v>101.67629262853205</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2971,16 +2971,16 @@
         <v>2076.9042496169427</v>
       </c>
       <c r="D10">
-        <v>2461.5000000000014</v>
+        <v>3021.5</v>
       </c>
       <c r="E10">
-        <v>2482.1937752507038</v>
+        <v>2639.390428550802</v>
       </c>
       <c r="F10">
-        <v>405.28952563376106</v>
+        <v>562.48617893385926</v>
       </c>
       <c r="G10">
-        <v>119.51411701856316</v>
+        <v>127.08291338118272</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2994,16 +2994,16 @@
         <v>67.486215530701273</v>
       </c>
       <c r="D11">
-        <v>92.90000000000002</v>
+        <v>100.79999999999998</v>
       </c>
       <c r="E11">
-        <v>52.201038141990075</v>
+        <v>52.573692951984469</v>
       </c>
       <c r="F11">
-        <v>-15.285177388711197</v>
+        <v>-14.912522578716803</v>
       </c>
       <c r="G11">
-        <v>77.350667438511849</v>
+        <v>77.902861404440884</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3017,16 +3017,16 @@
         <v>62.294577829967146</v>
       </c>
       <c r="D12">
-        <v>60.9</v>
+        <v>88.1</v>
       </c>
       <c r="E12">
-        <v>15.479404260683753</v>
+        <v>15.64332998782641</v>
       </c>
       <c r="F12">
-        <v>-46.815173569283395</v>
+        <v>-46.651247842140734</v>
       </c>
       <c r="G12">
-        <v>24.848718459790735</v>
+        <v>25.111864519773825</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3040,16 +3040,16 @@
         <v>311.47288914983574</v>
       </c>
       <c r="D13">
-        <v>299.09999999999997</v>
+        <v>345.92500000000007</v>
       </c>
       <c r="E13">
-        <v>504.92194865023788</v>
+        <v>540.59964897102725</v>
       </c>
       <c r="F13">
-        <v>193.44905950040214</v>
+        <v>229.12675982119151</v>
       </c>
       <c r="G13">
-        <v>162.10783225096117</v>
+        <v>173.56234452590473</v>
       </c>
     </row>
   </sheetData>
@@ -3088,16 +3088,16 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>42.9</v>
+        <v>48.1</v>
       </c>
       <c r="D2">
         <v>20.408732666305347</v>
       </c>
       <c r="E2">
-        <v>47.572803417961183</v>
+        <v>42.429797643046463</v>
       </c>
       <c r="F2">
-        <v>-22.491267333694651</v>
+        <v>-27.691267333694654</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3108,16 +3108,16 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>46.6</v>
+        <v>54.6</v>
       </c>
       <c r="D3">
         <v>13.749240648500649</v>
       </c>
       <c r="E3">
-        <v>29.504808258585083</v>
+        <v>25.18175942948837</v>
       </c>
       <c r="F3">
-        <v>-32.850759351499349</v>
+        <v>-40.850759351499349</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3128,16 +3128,16 @@
         <v>46</v>
       </c>
       <c r="C4">
-        <v>316.00000000000006</v>
+        <v>345.30000000000007</v>
       </c>
       <c r="D4">
-        <v>183.79330592191792</v>
+        <v>183.79330592191789</v>
       </c>
       <c r="E4">
-        <v>58.162438582885407</v>
+        <v>53.227137538927849</v>
       </c>
       <c r="F4">
-        <v>-132.20669407808214</v>
+        <v>-161.50669407808218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3148,16 +3148,16 @@
         <v>47</v>
       </c>
       <c r="C5">
-        <v>115.4</v>
+        <v>108</v>
       </c>
       <c r="D5">
-        <v>1177.2598969940593</v>
+        <v>1177.2598969940591</v>
       </c>
       <c r="E5">
-        <v>1020.1558899428591</v>
+        <v>1090.0554601796844</v>
       </c>
       <c r="F5">
-        <v>1061.8598969940592</v>
+        <v>1069.2598969940591</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3168,10 +3168,10 @@
         <v>48</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>44.199999999999996</v>
       </c>
       <c r="F6">
-        <v>-43</v>
+        <v>-44.199999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3182,16 +3182,16 @@
         <v>49</v>
       </c>
       <c r="C7">
-        <v>241.4</v>
+        <v>263.8</v>
       </c>
       <c r="D7">
-        <v>570.48622087158265</v>
+        <v>579.89269566524626</v>
       </c>
       <c r="E7">
-        <v>236.32403515807067</v>
+        <v>219.8228565827317</v>
       </c>
       <c r="F7">
-        <v>329.08622087158267</v>
+        <v>316.09269566524625</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3202,16 +3202,16 @@
         <v>50</v>
       </c>
       <c r="C8">
-        <v>90.800000000000011</v>
+        <v>118</v>
       </c>
       <c r="D8">
-        <v>50.080176153978769</v>
+        <v>50.080176153978783</v>
       </c>
       <c r="E8">
-        <v>55.154379024205689</v>
+        <v>42.440827249134564</v>
       </c>
       <c r="F8">
-        <v>-40.719823846021242</v>
+        <v>-67.919823846021217</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3222,16 +3222,16 @@
         <v>51</v>
       </c>
       <c r="C9">
-        <v>49.4</v>
+        <v>83.100000000000009</v>
       </c>
       <c r="D9">
         <v>0.10852728016560571</v>
       </c>
       <c r="E9">
-        <v>0.21969085053766338</v>
+        <v>0.13059841175163139</v>
       </c>
       <c r="F9">
-        <v>-49.291472719834395</v>
+        <v>-82.991472719834405</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3242,10 +3242,10 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>42.9</v>
+        <v>48.1</v>
       </c>
       <c r="F10">
-        <v>-42.9</v>
+        <v>-48.1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3256,16 +3256,16 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>46.6</v>
+        <v>54.6</v>
       </c>
       <c r="D11">
-        <v>14.658644652594138</v>
+        <v>14.658644652594136</v>
       </c>
       <c r="E11">
-        <v>31.456318996983125</v>
+        <v>26.84733452856069</v>
       </c>
       <c r="F11">
-        <v>-31.941355347405864</v>
+        <v>-39.941355347405867</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3276,16 +3276,16 @@
         <v>46</v>
       </c>
       <c r="C12">
-        <v>316.00000000000006</v>
+        <v>345.30000000000007</v>
       </c>
       <c r="D12">
         <v>359.25906638751513</v>
       </c>
       <c r="E12">
-        <v>113.68957797073261</v>
+        <v>104.04259090284248</v>
       </c>
       <c r="F12">
-        <v>43.259066387515077</v>
+        <v>13.959066387515065</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3296,10 +3296,10 @@
         <v>47</v>
       </c>
       <c r="C13">
-        <v>115.4</v>
+        <v>108</v>
       </c>
       <c r="F13">
-        <v>-115.4</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3310,16 +3310,16 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>44.199999999999996</v>
       </c>
       <c r="D14">
-        <v>29.519085195480653</v>
+        <v>29.519085195480649</v>
       </c>
       <c r="E14">
-        <v>68.649035338327096</v>
+        <v>66.78526062325939</v>
       </c>
       <c r="F14">
-        <v>-13.480914804519347</v>
+        <v>-14.680914804519347</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3330,16 +3330,16 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <v>241.4</v>
+        <v>263.8</v>
       </c>
       <c r="D15">
-        <v>180.38558664773527</v>
+        <v>183.35987842177639</v>
       </c>
       <c r="E15">
-        <v>74.724766631207643</v>
+        <v>69.507156338808329</v>
       </c>
       <c r="F15">
-        <v>-61.014413352264739</v>
+        <v>-80.440121578223625</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3350,16 +3350,16 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>90.800000000000011</v>
+        <v>118</v>
       </c>
       <c r="D16">
-        <v>50.080176153978769</v>
+        <v>50.080176153978783</v>
       </c>
       <c r="E16">
-        <v>55.154379024205689</v>
+        <v>42.440827249134564</v>
       </c>
       <c r="F16">
-        <v>-40.719823846021242</v>
+        <v>-67.919823846021217</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3370,16 +3370,16 @@
         <v>51</v>
       </c>
       <c r="C17">
-        <v>49.4</v>
+        <v>83.100000000000009</v>
       </c>
       <c r="D17">
-        <v>21.258120335167934</v>
+        <v>21.258120335167931</v>
       </c>
       <c r="E17">
-        <v>43.032632257424964</v>
+        <v>25.581372244486076</v>
       </c>
       <c r="F17">
-        <v>-28.141879664832064</v>
+        <v>-61.841879664832078</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3390,16 +3390,16 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>42.9</v>
+        <v>48.1</v>
       </c>
       <c r="D18">
-        <v>20.408732666305347</v>
+        <v>20.408732666305355</v>
       </c>
       <c r="E18">
-        <v>47.572803417961183</v>
+        <v>42.429797643046477</v>
       </c>
       <c r="F18">
-        <v>-22.491267333694651</v>
+        <v>-27.691267333694647</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3410,16 +3410,16 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>46.6</v>
+        <v>54.6</v>
       </c>
       <c r="D19">
         <v>11.350135583215996</v>
       </c>
       <c r="E19">
-        <v>24.356514127072955</v>
+        <v>20.787794108454207</v>
       </c>
       <c r="F19">
-        <v>-35.249864416784007</v>
+        <v>-43.249864416784007</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3430,16 +3430,16 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>316.00000000000006</v>
+        <v>345.30000000000007</v>
       </c>
       <c r="D20">
         <v>233.8021690457667</v>
       </c>
       <c r="E20">
-        <v>73.988028179040086</v>
+        <v>67.709866506158889</v>
       </c>
       <c r="F20">
-        <v>-82.197830954233353</v>
+        <v>-111.49783095423336</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3450,16 +3450,16 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <v>115.4</v>
+        <v>108</v>
       </c>
       <c r="D21">
-        <v>1185.4280907990083</v>
+        <v>1185.4280907990085</v>
       </c>
       <c r="E21">
-        <v>1027.2340474861423</v>
+        <v>1097.6186025916745</v>
       </c>
       <c r="F21">
-        <v>1070.0280907990082</v>
+        <v>1077.4280907990085</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3470,10 +3470,10 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>44.199999999999996</v>
       </c>
       <c r="F22">
-        <v>-43</v>
+        <v>-44.199999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3484,16 +3484,16 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>241.4</v>
+        <v>263.8</v>
       </c>
       <c r="D23">
-        <v>180.38558664773527</v>
+        <v>183.35987842177639</v>
       </c>
       <c r="E23">
-        <v>74.724766631207643</v>
+        <v>69.507156338808329</v>
       </c>
       <c r="F23">
-        <v>-61.014413352264739</v>
+        <v>-80.440121578223625</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3504,16 +3504,16 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>90.800000000000011</v>
+        <v>118</v>
       </c>
       <c r="D24">
-        <v>50.080176153978769</v>
+        <v>50.080176153978783</v>
       </c>
       <c r="E24">
-        <v>55.154379024205689</v>
+        <v>42.440827249134564</v>
       </c>
       <c r="F24">
-        <v>-40.719823846021242</v>
+        <v>-67.919823846021217</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3524,16 +3524,16 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>49.4</v>
+        <v>83.100000000000009</v>
       </c>
       <c r="D25">
-        <v>0.10852728016560571</v>
+        <v>0.1085272801656057</v>
       </c>
       <c r="E25">
-        <v>0.21969085053766338</v>
+        <v>0.13059841175163139</v>
       </c>
       <c r="F25">
-        <v>-49.291472719834395</v>
+        <v>-82.991472719834405</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3558,16 +3558,16 @@
         <v>67</v>
       </c>
       <c r="C28">
-        <v>92.699999999999989</v>
+        <v>76.800000000000011</v>
       </c>
       <c r="D28">
-        <v>1.793709577453503</v>
+        <v>1.7937095774535023</v>
       </c>
       <c r="E28">
-        <v>1.9349617879757315</v>
+        <v>2.3355593456425807</v>
       </c>
       <c r="F28">
-        <v>-90.906290422546491</v>
+        <v>-75.006290422546513</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3578,16 +3578,16 @@
         <v>68</v>
       </c>
       <c r="C29">
-        <v>303.7</v>
+        <v>297</v>
       </c>
       <c r="D29">
-        <v>162.95353870466982</v>
+        <v>162.95353870466977</v>
       </c>
       <c r="E29">
-        <v>53.656087818462247</v>
+        <v>54.866511348373663</v>
       </c>
       <c r="F29">
-        <v>-140.74646129533016</v>
+        <v>-134.04646129533023</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3598,16 +3598,16 @@
         <v>67</v>
       </c>
       <c r="C30">
-        <v>92.699999999999989</v>
+        <v>76.800000000000011</v>
       </c>
       <c r="D30">
-        <v>2.2547463436852455</v>
+        <v>2.254746343685246</v>
       </c>
       <c r="E30">
-        <v>2.4323045778697368</v>
+        <v>2.9358676350068302</v>
       </c>
       <c r="F30">
-        <v>-90.445253656314748</v>
+        <v>-74.54525365631477</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3618,16 +3618,16 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>303.7</v>
+        <v>297</v>
       </c>
       <c r="D31">
-        <v>212.19081033773415</v>
+        <v>212.19081033773418</v>
       </c>
       <c r="E31">
-        <v>69.86855789849659</v>
+        <v>71.44471728543239</v>
       </c>
       <c r="F31">
-        <v>-91.50918966226584</v>
+        <v>-84.809189662265823</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3638,16 +3638,16 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>92.699999999999989</v>
+        <v>76.800000000000011</v>
       </c>
       <c r="D32">
-        <v>3.7446994641806572</v>
+        <v>2.1674126922072623</v>
       </c>
       <c r="E32">
-        <v>4.0395894974980129</v>
+        <v>2.8221519429782056</v>
       </c>
       <c r="F32">
-        <v>-88.955300535819333</v>
+        <v>-74.632587307792747</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3658,16 +3658,16 @@
         <v>68</v>
       </c>
       <c r="C33">
-        <v>303.7</v>
+        <v>297</v>
       </c>
       <c r="D33">
-        <v>176.76527041030423</v>
+        <v>202.86385197891337</v>
       </c>
       <c r="E33">
-        <v>58.203908597400144</v>
+        <v>68.304327265627393</v>
       </c>
       <c r="F33">
-        <v>-126.93472958969576</v>
+        <v>-94.136148021086626</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3766,7 @@
         <v>356.79999999999995</v>
       </c>
       <c r="M2">
-        <v>102.88200000000001</v>
+        <v>102.88199999999995</v>
       </c>
       <c r="S2">
         <v>3.44</v>
@@ -3775,7 +3775,7 @@
         <v>55.4</v>
       </c>
       <c r="X2">
-        <v>643.34</v>
+        <v>643.33999999999992</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
@@ -3789,16 +3789,16 @@
         <v>527.78700000000003</v>
       </c>
       <c r="J3">
-        <v>227.07999999999993</v>
+        <v>227.07999999999998</v>
       </c>
       <c r="K3">
-        <v>393.31300000000005</v>
+        <v>393.31299999999987</v>
       </c>
       <c r="T3">
-        <v>58.899999999999991</v>
+        <v>58.9</v>
       </c>
       <c r="X3">
-        <v>1207.0800000000002</v>
+        <v>1207.08</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
@@ -3809,25 +3809,25 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>854.125</v>
+        <v>854.12499999999989</v>
       </c>
       <c r="E4">
         <v>551.89800000000002</v>
       </c>
       <c r="J4">
-        <v>602.47</v>
+        <v>602.46999999999991</v>
       </c>
       <c r="K4">
-        <v>551.89800000000002</v>
+        <v>551.89800000000014</v>
       </c>
       <c r="R4">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="S4">
         <v>55.269677419354835</v>
       </c>
       <c r="T4">
-        <v>64.701397849462353</v>
+        <v>64.701397849462367</v>
       </c>
       <c r="X4">
         <v>2761.5090286738355</v>
@@ -3847,7 +3847,7 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="J5">
-        <v>21.026</v>
+        <v>21.025999999999996</v>
       </c>
       <c r="K5">
         <v>0.35099999999999998</v>
@@ -3885,19 +3885,19 @@
         <v>356.79999999999995</v>
       </c>
       <c r="M6">
-        <v>102.88200000000001</v>
+        <v>102.88199999999995</v>
       </c>
       <c r="Q6">
         <v>1243.8890000000001</v>
       </c>
       <c r="R6">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="S6">
         <v>58.709677419354833</v>
       </c>
       <c r="T6">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="U6">
         <v>15.423999999999999</v>
@@ -3914,10 +3914,10 @@
         <v>53</v>
       </c>
       <c r="C7">
-        <v>227.7</v>
+        <v>227.70000000000002</v>
       </c>
       <c r="D7">
-        <v>356.79999999999995</v>
+        <v>356.8</v>
       </c>
       <c r="S7">
         <v>3.44</v>
@@ -3946,7 +3946,7 @@
         <v>227.07999999999998</v>
       </c>
       <c r="T8">
-        <v>58.899999999999991</v>
+        <v>58.9</v>
       </c>
       <c r="X8">
         <v>1434.16</v>
@@ -3963,22 +3963,22 @@
         <v>1406.0230000000001</v>
       </c>
       <c r="D9">
-        <v>602.47</v>
+        <v>602.46999999999991</v>
       </c>
       <c r="E9">
         <v>551.89800000000002</v>
       </c>
       <c r="N9">
-        <v>602.47</v>
+        <v>602.46999999999991</v>
       </c>
       <c r="R9">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="S9">
         <v>55.269677419354835</v>
       </c>
       <c r="T9">
-        <v>64.701397849462353</v>
+        <v>64.701397849462367</v>
       </c>
       <c r="X9">
         <v>3363.9790286738353</v>
@@ -3995,7 +3995,7 @@
         <v>0.877</v>
       </c>
       <c r="D10">
-        <v>13.249999999999998</v>
+        <v>13.25</v>
       </c>
       <c r="E10">
         <v>0.35099999999999998</v>
@@ -4004,7 +4004,7 @@
         <v>1.99</v>
       </c>
       <c r="U10">
-        <v>23.200000000000003</v>
+        <v>23.2</v>
       </c>
       <c r="X10">
         <v>39.667999999999999</v>
@@ -4030,19 +4030,19 @@
         <v>829.55</v>
       </c>
       <c r="Q11">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
       <c r="R11">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="S11">
         <v>58.709677419354833</v>
       </c>
       <c r="T11">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="U11">
-        <v>23.200000000000003</v>
+        <v>23.2</v>
       </c>
       <c r="V11">
         <v>55.4</v>
@@ -4059,10 +4059,10 @@
         <v>124.818</v>
       </c>
       <c r="L12">
-        <v>356.79999999999995</v>
+        <v>356.80000000000007</v>
       </c>
       <c r="M12">
-        <v>102.88199999999999</v>
+        <v>102.88200000000001</v>
       </c>
       <c r="S12">
         <v>3.44</v>
@@ -4071,7 +4071,7 @@
         <v>55.4</v>
       </c>
       <c r="X12">
-        <v>643.33999999999992</v>
+        <v>643.34</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
@@ -4085,16 +4085,16 @@
         <v>527.78700000000003</v>
       </c>
       <c r="D13">
-        <v>227.07999999999996</v>
+        <v>227.07999999999998</v>
       </c>
       <c r="J13">
-        <v>227.07999999999993</v>
+        <v>227.07999999999998</v>
       </c>
       <c r="K13">
         <v>393.31299999999999</v>
       </c>
       <c r="T13">
-        <v>58.899999999999991</v>
+        <v>58.9</v>
       </c>
       <c r="X13">
         <v>1434.1599999999999</v>
@@ -4108,28 +4108,28 @@
         <v>55</v>
       </c>
       <c r="C14">
-        <v>854.125</v>
+        <v>854.12499999999989</v>
       </c>
       <c r="D14">
-        <v>602.47</v>
+        <v>602.46999999999991</v>
       </c>
       <c r="E14">
         <v>551.89800000000002</v>
       </c>
       <c r="J14">
-        <v>602.46999999999991</v>
+        <v>602.47</v>
       </c>
       <c r="K14">
-        <v>551.89799999999991</v>
+        <v>551.89800000000002</v>
       </c>
       <c r="R14">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="S14">
         <v>55.269677419354835</v>
       </c>
       <c r="T14">
-        <v>64.701397849462353</v>
+        <v>64.701397849462367</v>
       </c>
       <c r="X14">
         <v>3363.9790286738353</v>
@@ -4146,13 +4146,13 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="D15">
-        <v>36.449999999999989</v>
+        <v>36.449999999999996</v>
       </c>
       <c r="E15">
         <v>0.35099999999999998</v>
       </c>
       <c r="J15">
-        <v>36.449999999999996</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="K15">
         <v>0.35099999999999998</v>
@@ -4161,7 +4161,7 @@
         <v>1.99</v>
       </c>
       <c r="X15">
-        <v>76.117999999999981</v>
+        <v>76.117999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
@@ -4181,28 +4181,28 @@
         <v>552.24900000000002</v>
       </c>
       <c r="J16">
-        <v>865.99999999999989</v>
+        <v>866</v>
       </c>
       <c r="K16">
-        <v>945.5619999999999</v>
+        <v>945.56200000000001</v>
       </c>
       <c r="L16">
-        <v>356.79999999999995</v>
+        <v>356.80000000000007</v>
       </c>
       <c r="M16">
-        <v>102.88199999999999</v>
+        <v>102.88200000000001</v>
       </c>
       <c r="Q16">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
       <c r="R16">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="S16">
         <v>58.709677419354833</v>
       </c>
       <c r="T16">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="V16">
         <v>55.4</v>
@@ -4453,13 +4453,13 @@
         <v>15.423999999999999</v>
       </c>
       <c r="W21">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X21">
         <v>58.709677419354833</v>
       </c>
       <c r="Y21">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z21">
         <v>265.4480286738351</v>
@@ -4488,13 +4488,13 @@
         <v>15.423999999999999</v>
       </c>
       <c r="W22">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X22">
         <v>58.709677419354833</v>
       </c>
       <c r="Y22">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z22">
         <v>265.4480286738351</v>
@@ -4523,13 +4523,13 @@
         <v>15.423999999999999</v>
       </c>
       <c r="W23">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X23">
         <v>58.709677419354833</v>
       </c>
       <c r="Y23">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z23">
         <v>265.4480286738351</v>
@@ -4549,16 +4549,16 @@
         <v>552.24900000000002</v>
       </c>
       <c r="H24">
-        <v>102.88200000000001</v>
+        <v>102.88199999999995</v>
       </c>
       <c r="I24">
-        <v>655.13100000000009</v>
+        <v>655.13099999999997</v>
       </c>
       <c r="L24">
-        <v>281.67799999999994</v>
+        <v>281.678</v>
       </c>
       <c r="P24">
-        <v>281.67799999999994</v>
+        <v>281.678</v>
       </c>
       <c r="S24">
         <v>75.121999999999986</v>
@@ -4570,13 +4570,13 @@
         <v>90.545999999999992</v>
       </c>
       <c r="W24">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X24">
         <v>58.709677419354833</v>
       </c>
       <c r="Y24">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z24">
         <v>265.4480286738351</v>
@@ -4596,19 +4596,19 @@
         <v>552.24900000000002</v>
       </c>
       <c r="H25">
-        <v>102.88200000000001</v>
+        <v>102.88199999999995</v>
       </c>
       <c r="I25">
-        <v>655.13100000000009</v>
+        <v>655.13099999999997</v>
       </c>
       <c r="L25">
-        <v>281.67799999999994</v>
+        <v>281.678</v>
       </c>
       <c r="O25">
         <v>55.4</v>
       </c>
       <c r="P25">
-        <v>337.07799999999992</v>
+        <v>337.07799999999997</v>
       </c>
       <c r="S25">
         <v>75.121999999999986</v>
@@ -4620,13 +4620,13 @@
         <v>90.545999999999992</v>
       </c>
       <c r="W25">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X25">
         <v>58.709677419354833</v>
       </c>
       <c r="Y25">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z25">
         <v>265.4480286738351</v>
@@ -4652,7 +4652,7 @@
         <v>945.56200000000001</v>
       </c>
       <c r="H26">
-        <v>102.88200000000001</v>
+        <v>102.88199999999995</v>
       </c>
       <c r="I26">
         <v>1048.444</v>
@@ -4661,7 +4661,7 @@
         <v>703.3359999999999</v>
       </c>
       <c r="L26">
-        <v>281.67799999999994</v>
+        <v>281.678</v>
       </c>
       <c r="O26">
         <v>55.4</v>
@@ -4682,19 +4682,19 @@
         <v>237.78599999999997</v>
       </c>
       <c r="W26">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X26">
         <v>58.709677419354833</v>
       </c>
       <c r="Y26">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z26">
         <v>265.4480286738351</v>
       </c>
       <c r="AA26">
-        <v>7.815970093361102E-14</v>
+        <v>1.8829382497642655E-13</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -4714,7 +4714,7 @@
         <v>945.56200000000001</v>
       </c>
       <c r="H27">
-        <v>102.88200000000001</v>
+        <v>102.88199999999995</v>
       </c>
       <c r="I27">
         <v>1048.444</v>
@@ -4723,7 +4723,7 @@
         <v>703.3359999999999</v>
       </c>
       <c r="L27">
-        <v>281.67799999999994</v>
+        <v>281.678</v>
       </c>
       <c r="O27">
         <v>55.4</v>
@@ -4744,19 +4744,19 @@
         <v>237.78599999999997</v>
       </c>
       <c r="W27">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X27">
         <v>58.709677419354833</v>
       </c>
       <c r="Y27">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z27">
         <v>265.4480286738351</v>
       </c>
       <c r="AA27">
-        <v>7.815970093361102E-14</v>
+        <v>1.8829382497642655E-13</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -4776,7 +4776,7 @@
         <v>945.56200000000001</v>
       </c>
       <c r="H28">
-        <v>102.88200000000001</v>
+        <v>102.88199999999995</v>
       </c>
       <c r="I28">
         <v>1048.444</v>
@@ -4785,7 +4785,7 @@
         <v>703.3359999999999</v>
       </c>
       <c r="L28">
-        <v>281.67799999999994</v>
+        <v>281.678</v>
       </c>
       <c r="O28">
         <v>55.4</v>
@@ -4806,19 +4806,19 @@
         <v>237.78599999999997</v>
       </c>
       <c r="W28">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X28">
         <v>58.709677419354833</v>
       </c>
       <c r="Y28">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z28">
         <v>265.4480286738351</v>
       </c>
       <c r="AA28">
-        <v>7.815970093361102E-14</v>
+        <v>1.8829382497642655E-13</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -4838,7 +4838,7 @@
         <v>945.56200000000001</v>
       </c>
       <c r="H29">
-        <v>102.88200000000001</v>
+        <v>102.88199999999995</v>
       </c>
       <c r="I29">
         <v>1048.444</v>
@@ -4847,7 +4847,7 @@
         <v>703.3359999999999</v>
       </c>
       <c r="L29">
-        <v>281.67799999999994</v>
+        <v>281.678</v>
       </c>
       <c r="O29">
         <v>55.4</v>
@@ -4868,19 +4868,19 @@
         <v>237.78599999999997</v>
       </c>
       <c r="W29">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X29">
         <v>58.709677419354833</v>
       </c>
       <c r="Y29">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z29">
         <v>265.4480286738351</v>
       </c>
       <c r="AA29">
-        <v>7.815970093361102E-14</v>
+        <v>1.8829382497642655E-13</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -4891,16 +4891,16 @@
         <v>78</v>
       </c>
       <c r="C30">
-        <v>1382.4380000000001</v>
+        <v>1382.4379999999999</v>
       </c>
       <c r="D30">
-        <v>1382.4380000000001</v>
+        <v>1382.4379999999999</v>
       </c>
       <c r="G30">
         <v>945.56200000000001</v>
       </c>
       <c r="H30">
-        <v>102.88200000000001</v>
+        <v>102.88199999999995</v>
       </c>
       <c r="I30">
         <v>1048.444</v>
@@ -4909,7 +4909,7 @@
         <v>703.3359999999999</v>
       </c>
       <c r="L30">
-        <v>281.67799999999994</v>
+        <v>281.678</v>
       </c>
       <c r="O30">
         <v>55.4</v>
@@ -4930,19 +4930,19 @@
         <v>237.78599999999997</v>
       </c>
       <c r="W30">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X30">
         <v>58.709677419354833</v>
       </c>
       <c r="Y30">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z30">
         <v>265.4480286738351</v>
       </c>
       <c r="AA30">
-        <v>7.815970093361102E-14</v>
+        <v>1.8829382497642655E-13</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -4965,13 +4965,13 @@
         <v>15.423999999999999</v>
       </c>
       <c r="W31">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X31">
         <v>58.709677419354833</v>
       </c>
       <c r="Y31">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z31">
         <v>265.4480286738351</v>
@@ -5000,13 +5000,13 @@
         <v>15.423999999999999</v>
       </c>
       <c r="W32">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X32">
         <v>58.709677419354833</v>
       </c>
       <c r="Y32">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z32">
         <v>265.4480286738351</v>
@@ -5029,37 +5029,37 @@
         <v>552.24900000000002</v>
       </c>
       <c r="J33">
-        <v>977.23800000000006</v>
+        <v>977.23799999999994</v>
       </c>
       <c r="N33">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="P33">
-        <v>985.01400000000001</v>
+        <v>985.0139999999999</v>
       </c>
       <c r="Q33">
-        <v>222.36199999999997</v>
+        <v>222.36200000000002</v>
       </c>
       <c r="U33">
         <v>15.423999999999999</v>
       </c>
       <c r="V33">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W33">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X33">
         <v>58.709677419354833</v>
       </c>
       <c r="Y33">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z33">
         <v>265.4480286738351</v>
       </c>
       <c r="AA33">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5076,37 +5076,37 @@
         <v>552.24900000000002</v>
       </c>
       <c r="J34">
-        <v>977.23800000000006</v>
+        <v>977.23799999999994</v>
       </c>
       <c r="N34">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="P34">
-        <v>985.01400000000001</v>
+        <v>985.0139999999999</v>
       </c>
       <c r="Q34">
-        <v>222.36199999999997</v>
+        <v>222.36200000000002</v>
       </c>
       <c r="U34">
         <v>15.423999999999999</v>
       </c>
       <c r="V34">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W34">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X34">
         <v>58.709677419354833</v>
       </c>
       <c r="Y34">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z34">
         <v>265.4480286738351</v>
       </c>
       <c r="AA34">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5123,37 +5123,37 @@
         <v>552.24900000000002</v>
       </c>
       <c r="J35">
-        <v>977.23800000000006</v>
+        <v>977.23799999999994</v>
       </c>
       <c r="N35">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="P35">
-        <v>985.01400000000001</v>
+        <v>985.0139999999999</v>
       </c>
       <c r="Q35">
-        <v>222.36199999999997</v>
+        <v>222.36200000000002</v>
       </c>
       <c r="U35">
         <v>15.423999999999999</v>
       </c>
       <c r="V35">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W35">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X35">
         <v>58.709677419354833</v>
       </c>
       <c r="Y35">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z35">
         <v>265.4480286738351</v>
       </c>
       <c r="AA35">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5170,37 +5170,37 @@
         <v>552.24900000000002</v>
       </c>
       <c r="J36">
-        <v>977.23800000000006</v>
+        <v>977.23799999999994</v>
       </c>
       <c r="N36">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="P36">
-        <v>985.01400000000001</v>
+        <v>985.0139999999999</v>
       </c>
       <c r="Q36">
-        <v>222.36199999999997</v>
+        <v>222.36200000000002</v>
       </c>
       <c r="U36">
         <v>15.423999999999999</v>
       </c>
       <c r="V36">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W36">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X36">
         <v>58.709677419354833</v>
       </c>
       <c r="Y36">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z36">
         <v>265.4480286738351</v>
       </c>
       <c r="AA36">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5217,10 +5217,10 @@
         <v>552.24900000000002</v>
       </c>
       <c r="J37">
-        <v>977.23800000000006</v>
+        <v>977.23799999999994</v>
       </c>
       <c r="N37">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="O37">
         <v>55.4</v>
@@ -5229,28 +5229,28 @@
         <v>1040.414</v>
       </c>
       <c r="Q37">
-        <v>222.36199999999997</v>
+        <v>222.36200000000002</v>
       </c>
       <c r="U37">
         <v>15.423999999999999</v>
       </c>
       <c r="V37">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W37">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X37">
         <v>58.709677419354833</v>
       </c>
       <c r="Y37">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z37">
         <v>265.4480286738351</v>
       </c>
       <c r="AA37">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5276,10 +5276,10 @@
         <v>281.678</v>
       </c>
       <c r="M38">
-        <v>682.31000000000006</v>
+        <v>682.31</v>
       </c>
       <c r="N38">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="O38">
         <v>55.4</v>
@@ -5288,31 +5288,31 @@
         <v>1027.164</v>
       </c>
       <c r="Q38">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="T38">
-        <v>147.23999999999998</v>
+        <v>147.24</v>
       </c>
       <c r="U38">
         <v>15.423999999999999</v>
       </c>
       <c r="V38">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W38">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X38">
         <v>58.709677419354833</v>
       </c>
       <c r="Y38">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z38">
         <v>265.4480286738351</v>
       </c>
       <c r="AA38">
-        <v>13.250000000000012</v>
+        <v>13.250000000000057</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5338,10 +5338,10 @@
         <v>281.678</v>
       </c>
       <c r="M39">
-        <v>682.31000000000006</v>
+        <v>682.31</v>
       </c>
       <c r="N39">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="O39">
         <v>55.4</v>
@@ -5350,31 +5350,31 @@
         <v>1027.164</v>
       </c>
       <c r="Q39">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="T39">
-        <v>147.23999999999998</v>
+        <v>147.24</v>
       </c>
       <c r="U39">
         <v>15.423999999999999</v>
       </c>
       <c r="V39">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W39">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X39">
         <v>58.709677419354833</v>
       </c>
       <c r="Y39">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z39">
         <v>265.4480286738351</v>
       </c>
       <c r="AA39">
-        <v>13.250000000000012</v>
+        <v>13.250000000000057</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5397,40 +5397,40 @@
         <v>1048.4440000000004</v>
       </c>
       <c r="M40">
-        <v>682.31000000000006</v>
+        <v>682.31</v>
       </c>
       <c r="N40">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="O40">
         <v>55.4</v>
       </c>
       <c r="P40">
-        <v>745.48599999999999</v>
+        <v>745.48599999999988</v>
       </c>
       <c r="T40">
-        <v>147.23999999999998</v>
+        <v>147.24</v>
       </c>
       <c r="U40">
         <v>15.423999999999999</v>
       </c>
       <c r="V40">
-        <v>162.66399999999999</v>
+        <v>162.66400000000002</v>
       </c>
       <c r="W40">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X40">
         <v>58.709677419354833</v>
       </c>
       <c r="Y40">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z40">
         <v>265.4480286738351</v>
       </c>
       <c r="AA40">
-        <v>13.250000000000012</v>
+        <v>13.250000000000057</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5456,10 +5456,10 @@
         <v>281.678</v>
       </c>
       <c r="M41">
-        <v>682.31000000000006</v>
+        <v>682.31</v>
       </c>
       <c r="N41">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="O41">
         <v>55.4</v>
@@ -5468,31 +5468,31 @@
         <v>1027.164</v>
       </c>
       <c r="Q41">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="T41">
-        <v>147.23999999999998</v>
+        <v>147.24</v>
       </c>
       <c r="U41">
         <v>15.423999999999999</v>
       </c>
       <c r="V41">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W41">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X41">
         <v>58.709677419354833</v>
       </c>
       <c r="Y41">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z41">
         <v>265.4480286738351</v>
       </c>
       <c r="AA41">
-        <v>13.250000000000012</v>
+        <v>13.250000000000057</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5503,10 +5503,10 @@
         <v>78</v>
       </c>
       <c r="C42">
-        <v>1382.4380000000001</v>
+        <v>1382.4379999999999</v>
       </c>
       <c r="D42">
-        <v>1382.4380000000001</v>
+        <v>1382.4379999999999</v>
       </c>
       <c r="E42">
         <v>945.56200000000024</v>
@@ -5518,10 +5518,10 @@
         <v>281.678</v>
       </c>
       <c r="M42">
-        <v>682.31000000000006</v>
+        <v>682.31</v>
       </c>
       <c r="N42">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="O42">
         <v>55.4</v>
@@ -5530,31 +5530,31 @@
         <v>1027.164</v>
       </c>
       <c r="Q42">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="T42">
-        <v>147.23999999999998</v>
+        <v>147.24</v>
       </c>
       <c r="U42">
         <v>15.423999999999999</v>
       </c>
       <c r="V42">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W42">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X42">
         <v>58.709677419354833</v>
       </c>
       <c r="Y42">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z42">
         <v>265.4480286738351</v>
       </c>
       <c r="AA42">
-        <v>13.250000000000012</v>
+        <v>13.250000000000057</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5571,37 +5571,37 @@
         <v>552.24900000000002</v>
       </c>
       <c r="J43">
-        <v>977.23800000000006</v>
+        <v>977.23799999999994</v>
       </c>
       <c r="N43">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="P43">
-        <v>985.01400000000001</v>
+        <v>985.0139999999999</v>
       </c>
       <c r="Q43">
-        <v>222.36199999999997</v>
+        <v>222.36200000000002</v>
       </c>
       <c r="U43">
         <v>15.423999999999999</v>
       </c>
       <c r="V43">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W43">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X43">
         <v>58.709677419354833</v>
       </c>
       <c r="Y43">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z43">
         <v>265.4480286738351</v>
       </c>
       <c r="AA43">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5618,37 +5618,37 @@
         <v>552.24900000000002</v>
       </c>
       <c r="J44">
-        <v>977.23800000000006</v>
+        <v>977.23799999999994</v>
       </c>
       <c r="N44">
-        <v>7.7760000000000016</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="P44">
-        <v>985.01400000000001</v>
+        <v>985.0139999999999</v>
       </c>
       <c r="Q44">
-        <v>222.36199999999997</v>
+        <v>222.36200000000002</v>
       </c>
       <c r="U44">
         <v>15.423999999999999</v>
       </c>
       <c r="V44">
-        <v>237.78599999999997</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W44">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X44">
         <v>58.709677419354833</v>
       </c>
       <c r="Y44">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z44">
         <v>265.4480286738351</v>
       </c>
       <c r="AA44">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5677,19 +5677,19 @@
         <v>162.66400000000002</v>
       </c>
       <c r="W45">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X45">
         <v>58.709677419354833</v>
       </c>
       <c r="Y45">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z45">
         <v>265.4480286738351</v>
       </c>
       <c r="AA45">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5718,19 +5718,19 @@
         <v>162.66400000000002</v>
       </c>
       <c r="W46">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X46">
         <v>58.709677419354833</v>
       </c>
       <c r="Y46">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z46">
         <v>265.4480286738351</v>
       </c>
       <c r="AA46">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5759,19 +5759,19 @@
         <v>162.66400000000002</v>
       </c>
       <c r="W47">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X47">
         <v>58.709677419354833</v>
       </c>
       <c r="Y47">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z47">
         <v>265.4480286738351</v>
       </c>
       <c r="AA47">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5785,16 +5785,16 @@
         <v>552.24900000000002</v>
       </c>
       <c r="H48">
-        <v>102.88199999999999</v>
+        <v>102.88200000000001</v>
       </c>
       <c r="I48">
-        <v>655.13099999999997</v>
+        <v>655.13100000000009</v>
       </c>
       <c r="J48">
         <v>703.3359999999999</v>
       </c>
       <c r="L48">
-        <v>281.678</v>
+        <v>281.67800000000005</v>
       </c>
       <c r="P48">
         <v>985.0139999999999</v>
@@ -5803,25 +5803,25 @@
         <v>162.66400000000002</v>
       </c>
       <c r="S48">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="V48">
-        <v>237.786</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W48">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X48">
         <v>58.709677419354833</v>
       </c>
       <c r="Y48">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z48">
         <v>265.4480286738351</v>
       </c>
       <c r="AA48">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5835,16 +5835,16 @@
         <v>552.24900000000002</v>
       </c>
       <c r="H49">
-        <v>102.88199999999999</v>
+        <v>102.88200000000001</v>
       </c>
       <c r="I49">
-        <v>655.13099999999997</v>
+        <v>655.13100000000009</v>
       </c>
       <c r="J49">
         <v>703.3359999999999</v>
       </c>
       <c r="L49">
-        <v>281.678</v>
+        <v>281.67800000000005</v>
       </c>
       <c r="O49">
         <v>55.4</v>
@@ -5856,25 +5856,25 @@
         <v>162.66400000000002</v>
       </c>
       <c r="S49">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="V49">
-        <v>237.786</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W49">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X49">
         <v>58.709677419354833</v>
       </c>
       <c r="Y49">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z49">
         <v>265.4480286738351</v>
       </c>
       <c r="AA49">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5891,49 +5891,46 @@
         <v>1507.2560000000001</v>
       </c>
       <c r="G50">
-        <v>945.5619999999999</v>
+        <v>945.56200000000001</v>
       </c>
       <c r="H50">
-        <v>102.88199999999999</v>
+        <v>102.88200000000001</v>
       </c>
       <c r="I50">
         <v>1048.444</v>
       </c>
       <c r="K50">
-        <v>703.33599999999979</v>
+        <v>703.3359999999999</v>
       </c>
       <c r="L50">
-        <v>281.678</v>
+        <v>281.67800000000005</v>
       </c>
       <c r="O50">
         <v>55.4</v>
       </c>
       <c r="P50">
-        <v>1040.4139999999998</v>
+        <v>1040.414</v>
       </c>
       <c r="R50">
-        <v>162.66399999999999</v>
+        <v>162.66400000000002</v>
       </c>
       <c r="S50">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="V50">
-        <v>237.78599999999994</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W50">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X50">
         <v>58.709677419354833</v>
       </c>
       <c r="Y50">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z50">
         <v>265.4480286738351</v>
-      </c>
-      <c r="AA50">
-        <v>3.0198066269804258E-13</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -5950,49 +5947,46 @@
         <v>1507.2560000000001</v>
       </c>
       <c r="G51">
-        <v>945.5619999999999</v>
+        <v>945.56200000000001</v>
       </c>
       <c r="H51">
-        <v>102.88199999999999</v>
+        <v>102.88200000000001</v>
       </c>
       <c r="I51">
         <v>1048.444</v>
       </c>
       <c r="K51">
-        <v>703.33599999999979</v>
+        <v>703.3359999999999</v>
       </c>
       <c r="L51">
-        <v>281.678</v>
+        <v>281.67800000000005</v>
       </c>
       <c r="O51">
         <v>55.4</v>
       </c>
       <c r="P51">
-        <v>1040.4139999999998</v>
+        <v>1040.414</v>
       </c>
       <c r="R51">
-        <v>162.66399999999999</v>
+        <v>162.66400000000002</v>
       </c>
       <c r="S51">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="V51">
-        <v>237.78599999999994</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W51">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X51">
         <v>58.709677419354833</v>
       </c>
       <c r="Y51">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z51">
         <v>265.4480286738351</v>
-      </c>
-      <c r="AA51">
-        <v>3.0198066269804258E-13</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -6009,49 +6003,46 @@
         <v>1507.2560000000001</v>
       </c>
       <c r="G52">
-        <v>945.5619999999999</v>
+        <v>945.56200000000001</v>
       </c>
       <c r="H52">
-        <v>102.88199999999999</v>
+        <v>102.88200000000001</v>
       </c>
       <c r="I52">
         <v>1048.444</v>
       </c>
       <c r="K52">
-        <v>703.33599999999979</v>
+        <v>703.3359999999999</v>
       </c>
       <c r="L52">
-        <v>281.678</v>
+        <v>281.67800000000005</v>
       </c>
       <c r="O52">
         <v>55.4</v>
       </c>
       <c r="P52">
-        <v>1040.4139999999998</v>
+        <v>1040.414</v>
       </c>
       <c r="R52">
-        <v>162.66399999999999</v>
+        <v>162.66400000000002</v>
       </c>
       <c r="S52">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="V52">
-        <v>237.78599999999994</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W52">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X52">
         <v>58.709677419354833</v>
       </c>
       <c r="Y52">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z52">
         <v>265.4480286738351</v>
-      </c>
-      <c r="AA52">
-        <v>3.0198066269804258E-13</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -6068,49 +6059,46 @@
         <v>1507.2560000000001</v>
       </c>
       <c r="G53">
-        <v>945.5619999999999</v>
+        <v>945.56200000000001</v>
       </c>
       <c r="H53">
-        <v>102.88199999999999</v>
+        <v>102.88200000000001</v>
       </c>
       <c r="I53">
         <v>1048.444</v>
       </c>
       <c r="K53">
-        <v>703.33599999999979</v>
+        <v>703.3359999999999</v>
       </c>
       <c r="L53">
-        <v>281.678</v>
+        <v>281.67800000000005</v>
       </c>
       <c r="O53">
         <v>55.4</v>
       </c>
       <c r="P53">
-        <v>1040.4139999999998</v>
+        <v>1040.414</v>
       </c>
       <c r="R53">
-        <v>162.66399999999999</v>
+        <v>162.66400000000002</v>
       </c>
       <c r="S53">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="V53">
-        <v>237.78599999999994</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W53">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X53">
         <v>58.709677419354833</v>
       </c>
       <c r="Y53">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z53">
         <v>265.4480286738351</v>
-      </c>
-      <c r="AA53">
-        <v>3.0198066269804258E-13</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -6121,55 +6109,52 @@
         <v>78</v>
       </c>
       <c r="C54">
-        <v>1382.4380000000001</v>
+        <v>1382.4379999999999</v>
       </c>
       <c r="D54">
-        <v>1382.4380000000001</v>
+        <v>1382.4379999999999</v>
       </c>
       <c r="G54">
-        <v>945.5619999999999</v>
+        <v>945.56200000000001</v>
       </c>
       <c r="H54">
-        <v>102.88199999999999</v>
+        <v>102.88200000000001</v>
       </c>
       <c r="I54">
         <v>1048.444</v>
       </c>
       <c r="K54">
-        <v>703.33599999999979</v>
+        <v>703.3359999999999</v>
       </c>
       <c r="L54">
-        <v>281.678</v>
+        <v>281.67800000000005</v>
       </c>
       <c r="O54">
         <v>55.4</v>
       </c>
       <c r="P54">
-        <v>1040.4139999999998</v>
+        <v>1040.414</v>
       </c>
       <c r="R54">
-        <v>162.66399999999999</v>
+        <v>162.66400000000002</v>
       </c>
       <c r="S54">
-        <v>75.121999999999971</v>
+        <v>75.122000000000014</v>
       </c>
       <c r="V54">
-        <v>237.78599999999994</v>
+        <v>237.78600000000003</v>
       </c>
       <c r="W54">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X54">
         <v>58.709677419354833</v>
       </c>
       <c r="Y54">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z54">
         <v>265.4480286738351</v>
-      </c>
-      <c r="AA54">
-        <v>3.0198066269804258E-13</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -6198,19 +6183,19 @@
         <v>162.66400000000002</v>
       </c>
       <c r="W55">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X55">
         <v>58.709677419354833</v>
       </c>
       <c r="Y55">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z55">
         <v>265.4480286738351</v>
       </c>
       <c r="AA55">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -6239,19 +6224,19 @@
         <v>162.66400000000002</v>
       </c>
       <c r="W56">
-        <v>81.146953405017911</v>
+        <v>81.146953405017925</v>
       </c>
       <c r="X56">
         <v>58.709677419354833</v>
       </c>
       <c r="Y56">
-        <v>125.59139784946234</v>
+        <v>125.59139784946235</v>
       </c>
       <c r="Z56">
         <v>265.4480286738351</v>
       </c>
       <c r="AA56">
-        <v>393.31299999999999</v>
+        <v>393.31300000000005</v>
       </c>
     </row>
   </sheetData>
@@ -6264,7 +6249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D07DF5E-995D-4AEC-8C0E-6D941C0C1124}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -6368,7 +6353,7 @@
         <v>3.0925943999999941E-2</v>
       </c>
       <c r="I2">
-        <v>4.7632255999999908E-2</v>
+        <v>4.7632255999999894E-2</v>
       </c>
       <c r="J2">
         <v>5.2951471999999902E-2</v>
@@ -6377,7 +6362,7 @@
         <v>0.32111999999999929</v>
       </c>
       <c r="L2">
-        <v>9.2593799999999823E-2</v>
+        <v>9.2593799999999768E-2</v>
       </c>
       <c r="P2">
         <v>7.0901672999999873E-2</v>
@@ -6389,7 +6374,7 @@
         <v>0.11548193548387073</v>
       </c>
       <c r="S2">
-        <v>0.2784361290322574</v>
+        <v>0.27843612903225756</v>
       </c>
       <c r="T2">
         <v>3.419500799999993E-2</v>
@@ -6398,10 +6383,10 @@
         <v>0.12282179999999976</v>
       </c>
       <c r="W2">
-        <v>5.7572166178232204E-4</v>
+        <v>5.7572166178232183E-4</v>
       </c>
       <c r="AA2">
-        <v>8.0719020742382047E-3</v>
+        <v>8.071902074238203E-3</v>
       </c>
       <c r="AD2">
         <v>1.7890077545998162</v>
@@ -6412,7 +6397,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.76926569999999816</v>
+        <v>0.76926569999999839</v>
       </c>
       <c r="C3">
         <v>6.7177599999999879E-2</v>
@@ -6421,10 +6406,10 @@
         <v>3.0925943999999941E-2</v>
       </c>
       <c r="M3">
-        <v>0.17669414999999966</v>
+        <v>0.17669414999999963</v>
       </c>
       <c r="P3">
-        <v>2.2418840999999953E-2</v>
+        <v>2.2418840999999957E-2</v>
       </c>
       <c r="Q3">
         <v>0.15961605734766993</v>
@@ -6433,7 +6418,7 @@
         <v>0.11548193548387073</v>
       </c>
       <c r="S3">
-        <v>0.2784361290322574</v>
+        <v>0.27843612903225745</v>
       </c>
       <c r="T3">
         <v>5.1434399999999894E-2</v>
@@ -6442,10 +6427,10 @@
         <v>0.12282179999999976</v>
       </c>
       <c r="W3">
-        <v>7.4967899999999789E-4</v>
+        <v>7.49678999999998E-4</v>
       </c>
       <c r="AA3">
-        <v>8.0719020742382047E-3</v>
+        <v>8.071902074238203E-3</v>
       </c>
       <c r="AD3">
         <v>1.8030941379380336</v>
@@ -6456,7 +6441,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.45368405599999917</v>
+        <v>0.45368405599999928</v>
       </c>
       <c r="C4">
         <v>4.8495999999999893E-2</v>
@@ -6465,7 +6450,7 @@
         <v>3.0925943999999941E-2</v>
       </c>
       <c r="I4">
-        <v>4.8495999999999893E-2</v>
+        <v>4.8495999999999907E-2</v>
       </c>
       <c r="J4">
         <v>5.2951471999999902E-2</v>
@@ -6474,10 +6459,10 @@
         <v>0.32111999999999941</v>
       </c>
       <c r="L4">
-        <v>9.259379999999981E-2</v>
+        <v>9.2593799999999754E-2</v>
       </c>
       <c r="P4">
-        <v>2.2418840999999953E-2</v>
+        <v>2.2418840999999957E-2</v>
       </c>
       <c r="Q4">
         <v>0.15961605734766993</v>
@@ -6486,22 +6471,19 @@
         <v>0.11548193548387073</v>
       </c>
       <c r="S4">
-        <v>0.2784361290322574</v>
+        <v>0.27843612903225745</v>
       </c>
       <c r="U4">
         <v>0.12282179999999976</v>
       </c>
       <c r="W4">
-        <v>6.2451908706604527E-4</v>
-      </c>
-      <c r="X4">
-        <v>5.7908181049784832E-2</v>
+        <v>7.1672646636127349E-4</v>
       </c>
       <c r="AA4">
-        <v>8.0719020742382047E-3</v>
+        <v>8.071902074238203E-3</v>
       </c>
       <c r="AD4">
-        <v>1.8136466370748849</v>
+        <v>1.7558306634043954</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
